--- a/stat.xlsx
+++ b/stat.xlsx
@@ -46,6 +46,9 @@
     <t>{"numerator":1,"denominator":1}</t>
   </si>
   <si>
+    <t>FaZe</t>
+  </si>
+  <si>
     <t>Heroic</t>
   </si>
   <si>
@@ -58,79 +61,76 @@
     <t>Vitality</t>
   </si>
   <si>
-    <t>Outsiders</t>
-  </si>
-  <si>
-    <t>FaZe</t>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>fnatic</t>
+  </si>
+  <si>
+    <t>FURIA</t>
   </si>
   <si>
     <t>Complexity</t>
   </si>
   <si>
-    <t>fnatic</t>
-  </si>
-  <si>
-    <t>Cloud9</t>
+    <t>Spirit</t>
   </si>
   <si>
     <t>OG</t>
   </si>
   <si>
-    <t>Spirit</t>
-  </si>
-  <si>
     <t>Astralis</t>
   </si>
   <si>
-    <t>MOUZ</t>
-  </si>
-  <si>
-    <t>FURIA</t>
+    <t>FORZE</t>
   </si>
   <si>
     <t>BIG</t>
   </si>
   <si>
+    <t>paiN</t>
+  </si>
+  <si>
     <t>Ninjas in Pyjamas</t>
   </si>
   <si>
+    <t>Eternal Fire</t>
+  </si>
+  <si>
     <t>IHC</t>
   </si>
   <si>
-    <t>Eternal Fire</t>
-  </si>
-  <si>
-    <t>ENCE</t>
-  </si>
-  <si>
-    <t>FORZE</t>
+    <t>Movistar Riders</t>
+  </si>
+  <si>
+    <t>MIBR</t>
+  </si>
+  <si>
+    <t>00NATION</t>
+  </si>
+  <si>
+    <t>Rare Atom</t>
+  </si>
+  <si>
+    <t>Grayhound</t>
+  </si>
+  <si>
+    <t>9INE</t>
   </si>
   <si>
     <t>Bad News Eagles</t>
   </si>
   <si>
-    <t>MIBR</t>
-  </si>
-  <si>
-    <t>Movistar Riders</t>
-  </si>
-  <si>
-    <t>9INE</t>
-  </si>
-  <si>
-    <t>paiN</t>
-  </si>
-  <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Rare Atom</t>
-  </si>
-  <si>
-    <t>Grayhound</t>
+    <t>Monte</t>
   </si>
 </sst>
 </file>
@@ -562,9 +562,6 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -580,7 +577,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7175</v>
+        <v>6667</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -591,9 +588,6 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -609,7 +603,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4608</v>
+        <v>7175</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -620,9 +614,6 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -638,7 +629,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5973</v>
+        <v>4608</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -649,9 +640,6 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -667,7 +655,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9565</v>
+        <v>5973</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -678,9 +666,6 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -696,7 +681,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11595</v>
+        <v>9565</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -707,9 +692,6 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -725,7 +707,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6667</v>
+        <v>5752</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -736,9 +718,6 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -754,7 +733,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5005</v>
+        <v>5378</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -765,9 +744,6 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -783,7 +759,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4991</v>
+        <v>4869</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -794,9 +770,6 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
@@ -812,7 +785,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5752</v>
+        <v>4494</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -823,9 +796,6 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
@@ -841,7 +811,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10503</v>
+        <v>4991</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -852,9 +822,6 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -870,7 +837,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7020</v>
+        <v>8297</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -881,9 +848,6 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -899,7 +863,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6665</v>
+        <v>5005</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -910,9 +874,6 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
@@ -928,7 +889,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4494</v>
+        <v>7020</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -939,9 +900,6 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
@@ -957,7 +915,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8297</v>
+        <v>10503</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -968,9 +926,6 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -986,7 +941,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7532</v>
+        <v>6665</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -997,9 +952,6 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -1015,7 +967,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4411</v>
+        <v>8135</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1026,9 +978,6 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -1044,7 +993,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11585</v>
+        <v>7532</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -1055,9 +1004,6 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -1073,7 +1019,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11251</v>
+        <v>4773</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1084,9 +1030,6 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -1102,7 +1045,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4869</v>
+        <v>4411</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1113,9 +1056,6 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -1131,7 +1071,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8135</v>
+        <v>11251</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1142,9 +1082,6 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -1160,7 +1097,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11518</v>
+        <v>11585</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1171,9 +1108,6 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -1189,7 +1123,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9215</v>
+        <v>7718</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1200,9 +1134,6 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -1218,7 +1149,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7718</v>
+        <v>9215</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -1229,9 +1160,6 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>24</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -1247,7 +1175,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10278</v>
+        <v>11309</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1258,9 +1186,6 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -1276,7 +1201,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4773</v>
+        <v>11514</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -1287,9 +1212,6 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>26</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
@@ -1305,7 +1227,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9928</v>
+        <v>8008</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -1316,9 +1238,6 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
-        <v>27</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
@@ -1334,7 +1253,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11861</v>
+        <v>10278</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -1345,9 +1264,6 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
@@ -1363,7 +1279,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11514</v>
+        <v>11518</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -1374,9 +1290,6 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>29</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
@@ -1392,7 +1305,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8008</v>
+        <v>11811</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -1402,9 +1315,6 @@
       </c>
       <c r="D31">
         <v>0</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
       </c>
       <c r="F31">
         <v>0</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Teams" state="visible" r:id="rId4"/>
+    <sheet name="Teams" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>teamId</t>
   </si>
@@ -34,94 +38,97 @@
     <t>ma2_5</t>
   </si>
   <si>
-    <t>MIBR</t>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>Natus Vincere</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>FaZe</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>FURIA</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>Ninjas in Pyjamas</t>
+  </si>
+  <si>
+    <t>fnatic</t>
+  </si>
+  <si>
+    <t>FORZE</t>
+  </si>
+  <si>
+    <t>paiN</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>9INE</t>
+  </si>
+  <si>
+    <t>Bad News Eagles</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>TheMongolz</t>
+  </si>
+  <si>
+    <t>Astralis</t>
+  </si>
+  <si>
+    <t>Movistar Riders</t>
+  </si>
+  <si>
+    <t>Grayhound</t>
+  </si>
+  <si>
+    <t>GamerLegion</t>
+  </si>
+  <si>
+    <t>Into the Breach</t>
+  </si>
+  <si>
+    <t>Apeks</t>
   </si>
   <si>
     <t>00NATION</t>
   </si>
   <si>
-    <t>Imperial</t>
-  </si>
-  <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>Grayhound</t>
-  </si>
-  <si>
-    <t>Movistar Riders</t>
-  </si>
-  <si>
-    <t>TheMongolz</t>
-  </si>
-  <si>
-    <t>Bad News Eagles</t>
-  </si>
-  <si>
-    <t>Monte</t>
-  </si>
-  <si>
-    <t>Astralis</t>
-  </si>
-  <si>
-    <t>Spirit</t>
-  </si>
-  <si>
-    <t>9INE</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>paiN</t>
-  </si>
-  <si>
-    <t>FORZE</t>
-  </si>
-  <si>
-    <t>fnatic</t>
-  </si>
-  <si>
-    <t>Ninjas in Pyjamas</t>
-  </si>
-  <si>
-    <t>OG</t>
-  </si>
-  <si>
-    <t>MOUZ</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>Virtus.pro</t>
-  </si>
-  <si>
-    <t>ENCE</t>
-  </si>
-  <si>
-    <t>FURIA</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Cloud9</t>
-  </si>
-  <si>
-    <t>FaZe</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>Natus Vincere</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>Heroic</t>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -130,11 +137,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,44 +194,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -254,12 +261,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -289,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -298,208 +305,154 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -533,696 +486,696 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9215</v>
+        <v>7175</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>904</v>
       </c>
       <c r="D2">
-        <v>5.8</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>5.54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11309</v>
+        <v>9565</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>895</v>
       </c>
       <c r="D3">
-        <v>6.239999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9455</v>
+        <v>4608</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>772</v>
       </c>
       <c r="D4">
-        <v>5.61</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>5.43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9928</v>
+        <v>5995</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>697</v>
       </c>
       <c r="D5">
-        <v>5.34</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>5.4500000000000011</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8008</v>
+        <v>6667</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>680</v>
       </c>
       <c r="D6">
-        <v>5.25</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>6.4500000000000011</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7718</v>
+        <v>5752</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="D7">
-        <v>4.07</v>
+        <v>5.53</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6248</v>
+        <v>5973</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>418</v>
       </c>
       <c r="D8">
-        <v>4.99</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>5.29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11518</v>
+        <v>8297</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="D9">
-        <v>5.100000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>5.3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11811</v>
+        <v>4869</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="D10">
-        <v>5.51</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6665</v>
+        <v>5378</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="D11">
-        <v>5.63</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>4.99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7020</v>
+        <v>4494</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="D12">
-        <v>5.03</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>5.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10278</v>
+        <v>10503</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="D13">
-        <v>5.41</v>
+        <v>6.36</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5005</v>
+        <v>7532</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="D14">
-        <v>5.15</v>
+        <v>6.34</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4773</v>
+        <v>4411</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="D15">
-        <v>6.75</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>5.12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8135</v>
+        <v>4991</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D16">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>5.1300000000000008</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4991</v>
+        <v>8135</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D17">
-        <v>5.16</v>
+        <v>5.2700000000000005</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4411</v>
+        <v>4773</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D18">
-        <v>6.34</v>
+        <v>6.6500000000000012</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10503</v>
+        <v>5005</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="D19">
-        <v>7.22</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>5.13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4494</v>
+        <v>10278</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="D20">
-        <v>5.3</v>
+        <v>5.35</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7532</v>
+        <v>11518</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="D21">
-        <v>6.39</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>5.120000000000001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5378</v>
+        <v>7020</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="D22">
-        <v>4.99</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+        <v>5.0299999999999994</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4869</v>
+        <v>11811</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>308</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>6.46</v>
+        <v>5.4899999999999993</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8297</v>
+        <v>6248</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>369</v>
+        <v>111</v>
       </c>
       <c r="D24">
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5973</v>
+        <v>6665</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>411</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>5.24</v>
+        <v>5.64</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5752</v>
+        <v>7718</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26">
-        <v>590</v>
+        <v>104</v>
       </c>
       <c r="D26">
-        <v>5.539999999999999</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6667</v>
+        <v>8008</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>697</v>
+        <v>101</v>
       </c>
       <c r="D27">
-        <v>6.450000000000001</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+        <v>5.43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5995</v>
+        <v>9928</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>714</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>5.48</v>
+        <v>5.34</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4608</v>
+        <v>11164</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29">
-        <v>778</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>5.359999999999999</v>
+        <v>5.29</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9565</v>
+        <v>9806</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>906</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>5.5600000000000005</v>
+        <v>5.38</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>7175</v>
+        <v>11309</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>937</v>
+        <v>74</v>
       </c>
       <c r="D31">
-        <v>5.55</v>
+        <v>6.1500000000000012</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/stat.xlsx
+++ b/stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>teamId</t>
   </si>
@@ -68,12 +68,12 @@
     <t>Virtus.pro</t>
   </si>
   <si>
+    <t>OG</t>
+  </si>
+  <si>
     <t>MOUZ</t>
   </si>
   <si>
-    <t>OG</t>
-  </si>
-  <si>
     <t>BIG</t>
   </si>
   <si>
@@ -86,46 +86,46 @@
     <t>FORZE</t>
   </si>
   <si>
+    <t>9INE</t>
+  </si>
+  <si>
     <t>paiN</t>
   </si>
   <si>
     <t>Complexity</t>
   </si>
   <si>
-    <t>9INE</t>
-  </si>
-  <si>
     <t>Bad News Eagles</t>
   </si>
   <si>
+    <t>Astralis</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
     <t>Spirit</t>
   </si>
   <si>
-    <t>Monte</t>
+    <t>Apeks</t>
+  </si>
+  <si>
+    <t>Movistar Riders</t>
   </si>
   <si>
     <t>TheMongolz</t>
   </si>
   <si>
-    <t>Astralis</t>
-  </si>
-  <si>
-    <t>Movistar Riders</t>
+    <t>Into the Breach</t>
   </si>
   <si>
     <t>Grayhound</t>
   </si>
   <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>Into the Breach</t>
-  </si>
-  <si>
-    <t>Apeks</t>
-  </si>
-  <si>
-    <t>00NATION</t>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>MIBR</t>
   </si>
   <si>
     <t>NaN</t>
@@ -448,13 +448,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
@@ -492,10 +491,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="D2">
-        <v>5.54</v>
+        <v>5.46</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -515,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D3">
-        <v>5.5600000000000005</v>
+        <v>5.67</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -538,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="D4">
-        <v>5.43</v>
+        <v>5.45</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -561,19 +560,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="D5">
-        <v>5.4500000000000011</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
+        <v>5.47</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -584,19 +583,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D6">
-        <v>6.4500000000000011</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+        <v>6.42</v>
+      </c>
+      <c r="E6">
+        <v>0.67</v>
+      </c>
+      <c r="F6">
+        <v>0.67</v>
+      </c>
+      <c r="G6">
+        <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,19 +606,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>606</v>
+        <v>666</v>
       </c>
       <c r="D7">
-        <v>5.53</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>5.54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,19 +629,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D8">
-        <v>5.29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
+        <v>5.33</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="D9">
-        <v>5.3</v>
+        <v>5.32</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -676,10 +675,10 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="D10">
-        <v>6.3999999999999995</v>
+        <v>5.37</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -702,7 +701,7 @@
         <v>268</v>
       </c>
       <c r="D11">
-        <v>4.99</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -716,48 +715,48 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4494</v>
+        <v>10503</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D12">
-        <v>5.3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
+        <v>5.38</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+      <c r="F12">
+        <v>0.25</v>
+      </c>
+      <c r="G12">
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10503</v>
+        <v>4494</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D13">
-        <v>6.36</v>
+        <v>5.23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,19 +767,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D14">
-        <v>6.34</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>5.21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,19 +790,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D15">
-        <v>5.12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
+        <v>5.18</v>
+      </c>
+      <c r="E15">
+        <v>0.67</v>
+      </c>
+      <c r="F15">
+        <v>0.67</v>
+      </c>
+      <c r="G15">
+        <v>0.67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D16">
-        <v>5.1300000000000008</v>
+        <v>5.14</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
@@ -837,33 +836,33 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D17">
-        <v>5.2700000000000005</v>
+        <v>5.28</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4773</v>
+        <v>10278</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D18">
-        <v>6.6500000000000012</v>
+        <v>5.31</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -877,48 +876,48 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5005</v>
+        <v>4773</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D19">
-        <v>5.13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
+        <v>5.57</v>
+      </c>
+      <c r="E19">
+        <v>0.78</v>
+      </c>
+      <c r="F19">
+        <v>0.78</v>
+      </c>
+      <c r="G19">
+        <v>0.78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10278</v>
+        <v>5005</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D20">
-        <v>5.35</v>
+        <v>5.01</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,10 +928,10 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D21">
-        <v>5.120000000000001</v>
+        <v>5.12</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -946,16 +945,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7020</v>
+        <v>6665</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D22">
-        <v>5.0299999999999994</v>
+        <v>5.6</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -975,33 +974,33 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D23">
-        <v>5.4899999999999993</v>
+        <v>5.54</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6248</v>
+        <v>7020</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D24">
-        <v>4.8900000000000006</v>
+        <v>4.93</v>
       </c>
       <c r="E24" t="s">
         <v>37</v>
@@ -1015,25 +1014,25 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6665</v>
+        <v>9806</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D25">
-        <v>5.64</v>
+        <v>5.39</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,125 +1043,125 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>4.1400000000000006</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8008</v>
+        <v>6248</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D27">
-        <v>5.43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
+        <v>4.96</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9928</v>
+        <v>11164</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D28">
-        <v>5.34</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>5.3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11164</v>
+        <v>8008</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D29">
-        <v>5.29</v>
+        <v>5.44</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9806</v>
+        <v>9455</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>5.38</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>5.55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11309</v>
+        <v>9215</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31">
-        <v>6.1500000000000012</v>
+        <v>5.83</v>
       </c>
       <c r="E31">
         <v>1</v>
